--- a/biology/Botanique/Lincoln_Square_(Manhattan)/Lincoln_Square_(Manhattan).xlsx
+++ b/biology/Botanique/Lincoln_Square_(Manhattan)/Lincoln_Square_(Manhattan).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lincoln Square est le nom d'un quartier, mais également d'un parc de l'Upper West Side dans l'arrondissement de Manhattan, à New York. Le Lincoln Square est situé à l'intersection de Broadway et de Columbus Avenue entre la 65e et la 66e rue. 
 Le célèbre Lincoln Center for the Performing Arts est rattaché au quartier, alors qu'il faisait partie du Lincoln Square Renewal Project.
@@ -512,7 +524,9 @@
           <t>Lieux notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">ABC Television Center East studios.
 Central Park.
